--- a/ourData/ClueLayoutA.xlsx
+++ b/ourData/ClueLayoutA.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27226"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\ClueGameBSJM\ourData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="0" windowWidth="19200" windowHeight="12040"/>
+    <workbookView xWindow="915" yWindow="0" windowWidth="19200" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ClueLayoutA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -102,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -327,7 +332,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,16 +519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="6.33203125" customWidth="1"/>
+    <col min="1" max="23" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20" customHeight="1">
+    <row r="1" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -595,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="20" customHeight="1">
+    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
@@ -664,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="20" customHeight="1">
+    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -733,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="20" customHeight="1">
+    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
         <v>1</v>
@@ -802,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="20" customHeight="1">
+    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>1</v>
@@ -871,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="20" customHeight="1">
+    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="8" t="s">
         <v>1</v>
@@ -940,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="20" customHeight="1">
+    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>11</v>
@@ -1009,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="20" customHeight="1">
+    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>11</v>
@@ -1078,7 +1083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="20" customHeight="1">
+    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>11</v>
@@ -1147,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="20" customHeight="1">
+    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="8" t="s">
         <v>2</v>
@@ -1216,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="20" customHeight="1">
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>2</v>
@@ -1285,7 +1290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="20" customHeight="1">
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>2</v>
@@ -1354,7 +1359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="20" customHeight="1">
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="8" t="s">
         <v>2</v>
@@ -1423,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="20" customHeight="1">
+    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -1492,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20" customHeight="1">
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="10" t="s">
         <v>11</v>
@@ -1561,7 +1566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20" customHeight="1">
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -1630,7 +1635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="20" customHeight="1">
+    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -1699,7 +1704,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="20" customHeight="1">
+    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -1768,7 +1773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="20" customHeight="1">
+    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>3</v>
@@ -1837,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="20" customHeight="1">
+    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
         <v>3</v>
@@ -1906,7 +1911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="20" customHeight="1">
+    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -1975,7 +1980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="20" customHeight="1">
+    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
         <v>3</v>
@@ -2044,72 +2049,70 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="20" customHeight="1">
-      <c r="A23" s="2">
+    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>6</v>
       </c>
-      <c r="H23" s="2">
-        <v>7</v>
-      </c>
       <c r="I23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L23" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23" s="2">
+        <v>11</v>
+      </c>
+      <c r="N23" s="2">
         <v>12</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>13</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>14</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>15</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>16</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>17</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>18</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <v>19</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <v>20</v>
-      </c>
-      <c r="V23" s="2">
-        <v>21</v>
       </c>
       <c r="W23" s="3"/>
     </row>
